--- a/Documenti/Modello Casi D'uso/UC Registrazione.xlsx
+++ b/Documenti/Modello Casi D'uso/UC Registrazione.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="995" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" state="visible" r:id="rId2"/>
@@ -33,19 +33,19 @@
     <t xml:space="preserve">IDENTIFICATORE </t>
   </si>
   <si>
-    <t xml:space="preserve">ID:2</t>
+    <t xml:space="preserve">ID:3</t>
   </si>
   <si>
     <t xml:space="preserve">BREVE DESCRIZIONE</t>
   </si>
   <si>
-    <t xml:space="preserve">Un utente non loggato si registra nel sistema.</t>
+    <t xml:space="preserve">Un utente non registrato si registra nel sistema.</t>
   </si>
   <si>
     <t xml:space="preserve">ATTORI PRIMARI</t>
   </si>
   <si>
-    <t xml:space="preserve">Utente non loggato</t>
+    <t xml:space="preserve">Utente non registrato</t>
   </si>
   <si>
     <t xml:space="preserve">ATTORI SECONDARI</t>
@@ -57,7 +57,7 @@
     <t xml:space="preserve">PRECONDIZIONI</t>
   </si>
   <si>
-    <t xml:space="preserve">Utente presente nel sistema</t>
+    <t xml:space="preserve">nessuna</t>
   </si>
   <si>
     <t xml:space="preserve">PASSI DEL CASO D'USO</t>
@@ -65,19 +65,19 @@
   <si>
     <t xml:space="preserve">1. L'utente compila tutti i campi del form registrazione.
 2. Il sistema verifica la validità di ogni dato inserito.
-3. Il sistema convalida la registrazione dell'utente salvando i suoi parametri.</t>
+3. Il sistema restituisce un messaggio per indicare che la registrazione ha avuto successo.</t>
   </si>
   <si>
     <t xml:space="preserve">POSTCONDIZIONI</t>
   </si>
   <si>
-    <t xml:space="preserve">L'utente è registrato nel sistema.</t>
+    <t xml:space="preserve">Il sistema registra il nuovo utente.</t>
   </si>
   <si>
     <t xml:space="preserve">SEQUENZE DEGLI EVENTI ALTERNATIVE</t>
   </si>
   <si>
-    <t xml:space="preserve">Se i dati inseriti non sono correnti il sistema restituisce una pagina di errore.</t>
+    <t xml:space="preserve">il sistema restituisce un messaggio ad indicare il tipo di errore commesso dall’utente.</t>
   </si>
 </sst>
 </file>
@@ -187,9 +187,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.3805668016194"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="72.3036437246964"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="48.6032388663968"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.7773279352227"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.06072874493927"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -240,7 +240,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>12</v>
       </c>
@@ -288,7 +288,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.06072874493927"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -314,7 +314,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.06072874493927"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Documenti/Modello Casi D'uso/UC Registrazione.xlsx
+++ b/Documenti/Modello Casi D'uso/UC Registrazione.xlsx
@@ -33,7 +33,7 @@
     <t xml:space="preserve">IDENTIFICATORE </t>
   </si>
   <si>
-    <t xml:space="preserve">ID:3</t>
+    <t xml:space="preserve">ID:2</t>
   </si>
   <si>
     <t xml:space="preserve">BREVE DESCRIZIONE</t>
@@ -187,9 +187,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="48.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.7773279352227"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.8259109311741"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.6194331983806"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.18218623481781"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -288,7 +288,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.18218623481781"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -314,7 +314,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.18218623481781"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
